--- a/OccultationSelection.xlsx
+++ b/OccultationSelection.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -503,146 +503,146 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>657478799.1854343</v>
+        <v>659968384.4594997</v>
       </c>
       <c r="C2" t="n">
-        <v>657478799.1854343</v>
+        <v>659968384.4594997</v>
       </c>
       <c r="D2" t="n">
-        <v>657479564.2240858</v>
+        <v>659970826.243029</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-01 04:58:50</t>
+          <t>11-30 00:31:55</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>236.8695102568268</v>
+        <v>148.9722894031989</v>
       </c>
       <c r="G2" t="n">
-        <v>-56.43092539370063</v>
+        <v>-83.89279807354342</v>
       </c>
       <c r="H2" t="n">
-        <v>3247.569508357848</v>
+        <v>4126.693110134316</v>
       </c>
       <c r="I2" t="n">
-        <v>5290.420952812505</v>
+        <v>8977.54058294927</v>
       </c>
       <c r="J2" t="n">
-        <v>-53.58328741559686</v>
+        <v>-78.96580430282114</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8:25:58</t>
+          <t>3:31:40</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>64.4139095093153</v>
+        <v>66.30570255323457</v>
       </c>
       <c r="M2" t="n">
-        <v>161.5699685410623</v>
+        <v>163.650842896241</v>
       </c>
       <c r="N2" t="n">
-        <v>65.00531244606428</v>
+        <v>53.80142962816122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>657482646.7744732</v>
+        <v>659991610.9668306</v>
       </c>
       <c r="C3" t="n">
-        <v>657482646.7744732</v>
+        <v>659991610.9668306</v>
       </c>
       <c r="D3" t="n">
-        <v>657486173.0091419</v>
+        <v>659993942.3718885</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-01 06:02:57</t>
+          <t>11-30 06:59:01</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10.20849676080172</v>
+        <v>17.7505216317233</v>
       </c>
       <c r="G3" t="n">
-        <v>35.28929704340472</v>
+        <v>18.80513573389164</v>
       </c>
       <c r="H3" t="n">
-        <v>9889.754714665518</v>
+        <v>4957.313525594775</v>
       </c>
       <c r="I3" t="n">
-        <v>7891.663565626185</v>
+        <v>8153.861149595329</v>
       </c>
       <c r="J3" t="n">
-        <v>105.6546746472184</v>
+        <v>-164.2647380649013</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>18:21:44</t>
+          <t>1:3:31</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>65.01727251511488</v>
+        <v>66.63006736508747</v>
       </c>
       <c r="M3" t="n">
-        <v>171.2425098458949</v>
+        <v>165.2437271734894</v>
       </c>
       <c r="N3" t="n">
-        <v>22.49358002437738</v>
+        <v>46.30385878481425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>657527951.6725531</v>
+        <v>659995701.243606</v>
       </c>
       <c r="C4" t="n">
-        <v>657527951.6725531</v>
+        <v>659995701.243606</v>
       </c>
       <c r="D4" t="n">
-        <v>657530456.3831921</v>
+        <v>659998518.6057123</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 18:38:02</t>
+          <t>11-30 08:07:12</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>331.2583466607591</v>
+        <v>186.5145895554089</v>
       </c>
       <c r="G4" t="n">
-        <v>-56.12921021742289</v>
+        <v>-45.17184745127933</v>
       </c>
       <c r="H4" t="n">
-        <v>4541.430900399597</v>
+        <v>8222.839824400568</v>
       </c>
       <c r="I4" t="n">
-        <v>7114.640828304537</v>
+        <v>7743.710303708774</v>
       </c>
       <c r="J4" t="n">
-        <v>-88.76456261097434</v>
+        <v>35.34855808840655</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4:0:38</t>
+          <t>13:24:55</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>64.97786943947239</v>
+        <v>66.5567363261717</v>
       </c>
       <c r="M4" t="n">
-        <v>164.4826536507721</v>
+        <v>169.4392360497177</v>
       </c>
       <c r="N4" t="n">
-        <v>49.50592487578447</v>
+        <v>27.21677280500924</v>
       </c>
     </row>
     <row r="5">
@@ -650,434 +650,434 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>657531886.5854082</v>
+        <v>660014690.2852682</v>
       </c>
       <c r="C5" t="n">
-        <v>657531886.5854082</v>
+        <v>660014690.2852682</v>
       </c>
       <c r="D5" t="n">
-        <v>657535672.6516829</v>
+        <v>660017146.4799236</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 19:43:37</t>
+          <t>11-30 13:23:41</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>155.3736167655888</v>
+        <v>126.8906896536072</v>
       </c>
       <c r="G5" t="n">
-        <v>41.63866600126428</v>
+        <v>70.31840893764995</v>
       </c>
       <c r="H5" t="n">
-        <v>8346.794008636423</v>
+        <v>8792.906874491993</v>
       </c>
       <c r="I5" t="n">
-        <v>8418.910754602677</v>
+        <v>3474.898926073965</v>
       </c>
       <c r="J5" t="n">
-        <v>96.11706215193462</v>
+        <v>89.06380097957403</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17:20:55</t>
+          <t>14:34:25</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>64.02561449761475</v>
+        <v>65.28526425350736</v>
       </c>
       <c r="M5" t="n">
-        <v>169.7691933511282</v>
+        <v>170.4214489099554</v>
       </c>
       <c r="N5" t="n">
-        <v>27.08864445968742</v>
+        <v>25.63383208158055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>657576796.2196646</v>
+        <v>660018262.7806629</v>
       </c>
       <c r="C6" t="n">
-        <v>657576796.2196646</v>
+        <v>660018262.7806629</v>
       </c>
       <c r="D6" t="n">
-        <v>657585172.7960663</v>
+        <v>660020614.9432443</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 08:12:07</t>
+          <t>11-30 14:23:13</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>88.60383107924095</v>
+        <v>276.0087071754472</v>
       </c>
       <c r="G6" t="n">
-        <v>-50.35163072260502</v>
+        <v>-69.57427079818196</v>
       </c>
       <c r="H6" t="n">
-        <v>7324.590501101869</v>
+        <v>3453.743065032457</v>
       </c>
       <c r="I6" t="n">
-        <v>6226.366584687829</v>
+        <v>9245.194173546766</v>
       </c>
       <c r="J6" t="n">
-        <v>-108.527128646333</v>
+        <v>-94.33354617134712</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1:2:9</t>
+          <t>1:28:50</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>64.68533054312864</v>
+        <v>66.46513382634353</v>
       </c>
       <c r="M6" t="n">
-        <v>168.434466426884</v>
+        <v>162.1045999560128</v>
       </c>
       <c r="N6" t="n">
-        <v>30.76023000912081</v>
+        <v>62.08008243781237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>657602000.2230635</v>
+        <v>660041559.0409969</v>
       </c>
       <c r="C7" t="n">
-        <v>657602000.2230635</v>
+        <v>660041559.0409969</v>
       </c>
       <c r="D7" t="n">
-        <v>657603485.4414034</v>
+        <v>660043923.9424881</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 15:12:11</t>
+          <t>11-30 20:51:29</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>289.7296253314746</v>
+        <v>175.1044114081586</v>
       </c>
       <c r="G7" t="n">
-        <v>53.01408278356912</v>
+        <v>39.89533623253119</v>
       </c>
       <c r="H7" t="n">
-        <v>7322.79961041336</v>
+        <v>5677.649468440253</v>
       </c>
       <c r="I7" t="n">
-        <v>5512.275474313628</v>
+        <v>7232.224037916437</v>
       </c>
       <c r="J7" t="n">
-        <v>134.1211564763686</v>
+        <v>-151.183003593198</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21:15:23</t>
+          <t>1:3:5</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>62.89661668356309</v>
+        <v>66.17020966258221</v>
       </c>
       <c r="M7" t="n">
-        <v>168.832342433622</v>
+        <v>166.6221709618927</v>
       </c>
       <c r="N7" t="n">
-        <v>31.24549585087763</v>
+        <v>40.71365595588308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>657605100.5410709</v>
+        <v>660045391.0351919</v>
       </c>
       <c r="C8" t="n">
-        <v>657605100.5410709</v>
+        <v>660045391.0351919</v>
       </c>
       <c r="D8" t="n">
-        <v>657605972.8092451</v>
+        <v>660048164.0428556</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 16:03:51</t>
+          <t>11-30 21:55:21</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>112.9729798090164</v>
+        <v>342.3938568723403</v>
       </c>
       <c r="G8" t="n">
-        <v>-74.45713783073502</v>
+        <v>-54.50091134727366</v>
       </c>
       <c r="H8" t="n">
-        <v>4100.552371283938</v>
+        <v>7198.005754354317</v>
       </c>
       <c r="I8" t="n">
-        <v>5707.10550721239</v>
+        <v>8089.238796213791</v>
       </c>
       <c r="J8" t="n">
-        <v>-56.40552177289107</v>
+        <v>42.4646977151813</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10:18:38</t>
+          <t>13:14:24</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>64.38025039200083</v>
+        <v>66.45604432523446</v>
       </c>
       <c r="M8" t="n">
-        <v>163.5956466978762</v>
+        <v>168.2830432285616</v>
       </c>
       <c r="N8" t="n">
-        <v>54.01544184458366</v>
+        <v>31.32921271528748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>657625702.0988989</v>
+        <v>660064446.9928964</v>
       </c>
       <c r="C9" t="n">
-        <v>657625702.0988989</v>
+        <v>660064446.9928964</v>
       </c>
       <c r="D9" t="n">
-        <v>657634675.6548357</v>
+        <v>660066943.4138254</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 21:47:12</t>
+          <t>12-01 03:12:57</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>214.5682290352247</v>
+        <v>279.3436916657578</v>
       </c>
       <c r="G9" t="n">
-        <v>-33.81999798323842</v>
+        <v>59.63715863539786</v>
       </c>
       <c r="H9" t="n">
-        <v>9524.44273909898</v>
+        <v>9569.709557729615</v>
       </c>
       <c r="I9" t="n">
-        <v>4833.991541079228</v>
+        <v>3054.236519535939</v>
       </c>
       <c r="J9" t="n">
-        <v>123.1156170587437</v>
+        <v>78.78522116633305</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>22:39:7</t>
+          <t>14:11:17</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>65.07705848598391</v>
+        <v>65.42996864419824</v>
       </c>
       <c r="M9" t="n">
-        <v>170.7155909418032</v>
+        <v>171.1567745797446</v>
       </c>
       <c r="N9" t="n">
-        <v>23.25835480528951</v>
+        <v>23.35611504422877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>657705166.8147993</v>
+        <v>660068165.6691126</v>
       </c>
       <c r="C10" t="n">
-        <v>657705166.8147993</v>
+        <v>660068165.6691126</v>
       </c>
       <c r="D10" t="n">
-        <v>657706072.8875246</v>
+        <v>660070456.047707</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 19:51:37</t>
+          <t>12-01 04:14:56</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>35.11890949507011</v>
+        <v>63.71564395934878</v>
       </c>
       <c r="G10" t="n">
-        <v>-55.49291600092808</v>
+        <v>-51.32389315784948</v>
       </c>
       <c r="H10" t="n">
-        <v>3325.619180940335</v>
+        <v>3197.988941669766</v>
       </c>
       <c r="I10" t="n">
-        <v>5350.679265204383</v>
+        <v>9402.991112319749</v>
       </c>
       <c r="J10" t="n">
-        <v>-55.76360502461924</v>
+        <v>-113.2748895804718</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8:10:1</t>
+          <t>0:49:5</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>64.5839226306453</v>
+        <v>66.83293761413456</v>
       </c>
       <c r="M10" t="n">
-        <v>161.7762497655005</v>
+        <v>161.4363385917037</v>
       </c>
       <c r="N10" t="n">
-        <v>63.90069251038873</v>
+        <v>65.67478207854127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>657754482.6353817</v>
+        <v>660091488.8363432</v>
       </c>
       <c r="C11" t="n">
-        <v>657754482.6353817</v>
+        <v>660091488.8363432</v>
       </c>
       <c r="D11" t="n">
-        <v>657756738.482419</v>
+        <v>660093889.8323835</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 09:33:33</t>
+          <t>12-01 10:43:39</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>135.6107324814406</v>
+        <v>331.355642164026</v>
       </c>
       <c r="G11" t="n">
-        <v>-55.33297474485473</v>
+        <v>59.47137391527636</v>
       </c>
       <c r="H11" t="n">
-        <v>4029.893378622191</v>
+        <v>6396.744365921611</v>
       </c>
       <c r="I11" t="n">
-        <v>7414.739841616409</v>
+        <v>6210.970054022779</v>
       </c>
       <c r="J11" t="n">
-        <v>-88.28397490844196</v>
+        <v>-133.7583526088257</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4:11:46</t>
+          <t>0:57:57</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>65.05270321915381</v>
+        <v>65.80721792677886</v>
       </c>
       <c r="M11" t="n">
-        <v>163.4446705563128</v>
+        <v>167.657979344141</v>
       </c>
       <c r="N11" t="n">
-        <v>55.00507856657259</v>
+        <v>36.07978058628299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>657758513.1283979</v>
+        <v>660095125.7681116</v>
       </c>
       <c r="C12" t="n">
-        <v>657758513.1283979</v>
+        <v>660095125.7681116</v>
       </c>
       <c r="D12" t="n">
-        <v>657762106.7342396</v>
+        <v>660097833.7619289</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 10:40:43</t>
+          <t>12-01 11:44:16</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>316.7662309893073</v>
+        <v>137.241243232842</v>
       </c>
       <c r="G12" t="n">
-        <v>32.13608746841511</v>
+        <v>-65.61424200205168</v>
       </c>
       <c r="H12" t="n">
-        <v>8902.465279340904</v>
+        <v>6175.719229375086</v>
       </c>
       <c r="I12" t="n">
-        <v>8326.622445072917</v>
+        <v>8446.035966414618</v>
       </c>
       <c r="J12" t="n">
-        <v>92.54612770563405</v>
+        <v>52.15051231338676</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17:21:45</t>
+          <t>13:0:29</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>64.50800976225581</v>
+        <v>66.33234398221717</v>
       </c>
       <c r="M12" t="n">
-        <v>170.3290052094</v>
+        <v>166.9525503018387</v>
       </c>
       <c r="N12" t="n">
-        <v>25.23632344313506</v>
+        <v>36.73029566267598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>657803385.2926712</v>
+        <v>660118096.9860262</v>
       </c>
       <c r="C13" t="n">
-        <v>657803385.2926712</v>
+        <v>660118096.9860262</v>
       </c>
       <c r="D13" t="n">
-        <v>657806469.1825734</v>
+        <v>660120347.5084804</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 23:08:36</t>
+          <t>12-01 18:07:07</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>259.300859895015</v>
+        <v>218.3705809344886</v>
       </c>
       <c r="G13" t="n">
-        <v>-50.48839716857394</v>
+        <v>-28.91115346129128</v>
       </c>
       <c r="H13" t="n">
-        <v>6744.786998446992</v>
+        <v>3479.376920890679</v>
       </c>
       <c r="I13" t="n">
-        <v>6875.316725045204</v>
+        <v>9271.551267541217</v>
       </c>
       <c r="J13" t="n">
-        <v>-106.7790817277272</v>
+        <v>-135.7261717983708</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1:39:36</t>
+          <t>0:37:35</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>64.40440115657725</v>
+        <v>67.16976378244955</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7181642209726</v>
+        <v>162.168829006715</v>
       </c>
       <c r="N13" t="n">
-        <v>33.5484169863489</v>
+        <v>62.04954982391555</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>